--- a/结果/3_第三题预测结果.xlsx
+++ b/结果/3_第三题预测结果.xlsx
@@ -436,108 +436,108 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>文物编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>预测结果</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>高钾</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>铅钡</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>铅钡</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>铅钡</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>铅钡</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>高钾</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>A6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>高钾</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>A7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>铅钡</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>A8</t>
         </is>
       </c>
     </row>
